--- a/biology/Histoire de la zoologie et de la botanique/Adolf_Engler/Adolf_Engler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adolf_Engler/Adolf_Engler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Gustav Adolf Engler est un botaniste allemand, né le 25 mars 1844 à Sagan en Prusse (aujourd’hui Żagań dans l'ouest de la Pologne) et mort le 10 octobre 1930 à Berlin. Il se spécialise dans la biogéographie botanique et son œuvre eut une influence considérable sur la taxinomie végétale.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie au lycée Sainte-Marie-Madeleine de Breslau jusqu'à l'obtention de son baccalauréat en 1863. Pendant ses études à Munich, il devient membre de la Münchener Burschenschaft Arminia-Rhenania (de) en 1866[1]. Il obtient son doctorat à l'université de Breslau (aujourd'hui Wrocław en Pologne) en 1866. Après avoir enseigné quelques années, il devient conservateur de collections de botanique de l’Institut de botanique de Munich en 1871. Il enseigne à Kiel (1878) la botanique taxinomique puis à Breslau (1884) où il succède à Johann Heinrich Robert Göppert (1800-1884). Engler est élu à l'Académie allemande des sciences Leopoldina en 1878. Il est professeur de botanique à l'université de Berlin et directeur du jardin botanique de 1889 à 1921. Il participe à de nombreuses expéditions scientifiques notamment en Afrique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie au lycée Sainte-Marie-Madeleine de Breslau jusqu'à l'obtention de son baccalauréat en 1863. Pendant ses études à Munich, il devient membre de la Münchener Burschenschaft Arminia-Rhenania (de) en 1866. Il obtient son doctorat à l'université de Breslau (aujourd'hui Wrocław en Pologne) en 1866. Après avoir enseigné quelques années, il devient conservateur de collections de botanique de l’Institut de botanique de Munich en 1871. Il enseigne à Kiel (1878) la botanique taxinomique puis à Breslau (1884) où il succède à Johann Heinrich Robert Göppert (1800-1884). Engler est élu à l'Académie allemande des sciences Leopoldina en 1878. Il est professeur de botanique à l'université de Berlin et directeur du jardin botanique de 1889 à 1921. Il participe à de nombreuses expéditions scientifiques notamment en Afrique.
 Il fonde en 1881 la revue scientifique Botanische Jahrbücher qu'il dirige jusqu'à sa mort.  Il fait contribuer Ernst Friedrich Gilg à deux séries d'ouvrages (l'édition du Syllabus de 1921, et sur le Die natürlichen Pflanzenfamilien).
 Il est l'auteur de nombreux travaux sur la géographie des végétaux, notamment d'Afrique. Il met en évidence l'importance de la géologie sur la répartition des plantes. Il est l'un des premiers à combiner la phylogénie et la biogéographie. Il est également l'auteur d'importants travaux sur les Araceae, les Burseraceae et le genre Saxifraga. Il reçoit la médaille linnéenne en 1913.
 Le système de classification classique développé par Engler et Prantl, appelé classification d'Engler, fut utilisé jusque dans les années 1970. Une publication nommée Englera (ISSN 0170-4818), éditée par le Jardin botanique de Berlin, lui est dédiée. Plusieurs genres, Englerastrum, Englerella, Engleria (en), Englerina (en), Englerocharis (en), Englerodaphne (en), Englerodendron, Englerophytum, et espèces, Aedesia engleriana, perpétuent sa mémoire.
@@ -546,11 +560,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir ses publications disponibles sur biodiversitylibrary.org.
 [1879-1882] (de) Versuch einer Entwicklungsgeschichte der Pflanzenwelt insbesondere der Florengebiete, seit der Tertiäperiode (2 volumes) (OCLC 5963818).
-[1892] (de) Syllabus der Vorlesungen über spezielle und medizinisch-pharmaceutische Botanik, 1892 (lire en ligne [sur biodiversitylibrary.org]).
+ (de) Syllabus der Vorlesungen über spezielle und medizinisch-pharmaceutische Botanik, 1892 (lire en ligne [sur biodiversitylibrary.org]).
 Monographien afrikanischer Pflanzen-Familien und -Gattungen, 8 tomes :
 [Engler 1898] (de) Monographien…, t. 1 : Moraceae (excl. Ficus), 18 pl. + 50 p. (lire en ligne [sur biodiversitylibrary.org]).
 [Gilg 1898] (de) Ernst Friedrich Gilg (Adolf Engler dir.), Monographien…, t. 2 : Melastomaceae, 10 pl. + 52 p. (lire en ligne).
